--- a/outputs-HGR-r202/test-f__Dialisteraceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Dialisteraceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Row</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>even_MAG-GUT57726.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT66378.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT66382.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT73491.fa</t>
   </si>
   <si>
     <t>1-g__Allisonella</t>
@@ -106,14 +115,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.5703125" customWidth="true"/>
-    <col min="5" max="5" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -122,19 +131,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,6 +326,66 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.6469646198335025e-05</v>
+      </c>
+      <c r="C11">
+        <v>0.99997219225364065</v>
+      </c>
+      <c r="D11">
+        <v>2.2204308322019582e-14</v>
+      </c>
+      <c r="E11">
+        <v>1.3381001388389599e-06</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.00012176349490048365</v>
+      </c>
+      <c r="C12">
+        <v>0.99976345704945924</v>
+      </c>
+      <c r="D12">
+        <v>2.2203498894065605e-14</v>
+      </c>
+      <c r="E12">
+        <v>0.00011477945561805798</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.0062224855532081e-05</v>
+      </c>
+      <c r="C13">
+        <v>0.99997833735069575</v>
+      </c>
+      <c r="D13">
+        <v>2.2204343996055989e-14</v>
+      </c>
+      <c r="E13">
+        <v>1.60042442648413e-06</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>